--- a/环境保护与可持续发展/实验/数据处理工具-铬含量.xlsx
+++ b/环境保护与可持续发展/实验/数据处理工具-铬含量.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\heu-icicles\环境保护与可持续发展\实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98CE5A06-B1DD-4D60-824C-DB34DA856F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721144AE-5075-4E3B-8101-2C68CC4F6676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>c/μg</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>说明：黄色的数据替换成自己的；红色的不要动，表格会自动填充。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铬浓度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -210,51 +218,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -265,17 +228,6 @@
       </left>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
       </right>
       <top/>
       <bottom/>
@@ -300,19 +252,6 @@
       </left>
       <right style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
       </right>
       <top/>
       <bottom style="thick">
@@ -348,11 +287,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,8 +388,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -372,25 +398,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -405,28 +416,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,28 +724,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.0199999999999993E-3</c:v>
+                  <c:v>0.20099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0049999999999998E-2</c:v>
+                  <c:v>0.50249999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0099999999999996E-2</c:v>
+                  <c:v>1.0049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0199999999999993E-2</c:v>
+                  <c:v>2.0099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0399999999999985E-2</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12059999999999998</c:v>
+                  <c:v>6.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16079999999999997</c:v>
+                  <c:v>8.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20099999999999998</c:v>
+                  <c:v>10.049999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,28 +757,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4000000000000001E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.104</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,28 +858,28 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="8"/>
                       <c:pt idx="0">
-                        <c:v>4.0199999999999993E-3</c:v>
+                        <c:v>0.20099999999999998</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.0049999999999998E-2</c:v>
+                        <c:v>0.50249999999999995</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2.0099999999999996E-2</c:v>
+                        <c:v>1.0049999999999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4.0199999999999993E-2</c:v>
+                        <c:v>2.0099999999999998</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>8.0399999999999985E-2</c:v>
+                        <c:v>4.0199999999999996</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.12059999999999998</c:v>
+                        <c:v>6.0299999999999994</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.16079999999999997</c:v>
+                        <c:v>8.0399999999999991</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.20099999999999998</c:v>
+                        <c:v>10.049999999999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1738,7 +1778,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
@@ -2224,162 +2264,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="10.58203125" customWidth="1"/>
+    <col min="1" max="10" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25">
+    <row r="2" spans="1:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
         <v>0</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="19">
         <v>0.2</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="19">
         <v>0.5</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="19">
         <v>2</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="19">
         <v>4</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="19">
         <v>6</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="19">
         <v>8</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="22">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
     </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+    <row r="4" spans="1:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <f>$B$8*A2/50</f>
         <v>0</v>
       </c>
-      <c r="B4" s="13">
-        <v>2E-3</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.03</v>
-      </c>
-      <c r="G4" s="13">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="H4" s="13">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0.104</v>
+      <c r="B6" s="17">
+        <f>$B$8*B2</f>
+        <v>0.20099999999999998</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" ref="C6:I6" si="0">$B$8*C2</f>
+        <v>0.50249999999999995</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>6.0299999999999994</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="0"/>
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I6" s="17">
+        <f>$B$8*I2</f>
+        <v>10.049999999999999</v>
+      </c>
+      <c r="J6" s="30" t="e">
+        <f>B26</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21">
-        <f t="shared" ref="A6" si="0">1.003*A2/50</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="22">
-        <f>1.005*B2/50</f>
-        <v>4.0199999999999993E-3</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" ref="C6:I6" si="1">1.005*C2/50</f>
-        <v>1.0049999999999998E-2</v>
-      </c>
-      <c r="D6" s="22">
-        <f t="shared" si="1"/>
-        <v>2.0099999999999996E-2</v>
-      </c>
-      <c r="E6" s="22">
-        <f t="shared" si="1"/>
-        <v>4.0199999999999993E-2</v>
-      </c>
-      <c r="F6" s="22">
-        <f t="shared" si="1"/>
-        <v>8.0399999999999985E-2</v>
-      </c>
-      <c r="G6" s="22">
-        <f t="shared" si="1"/>
-        <v>0.12059999999999998</v>
-      </c>
-      <c r="H6" s="22">
-        <f t="shared" si="1"/>
-        <v>0.16079999999999997</v>
-      </c>
-      <c r="I6" s="23">
-        <f t="shared" si="1"/>
-        <v>0.20099999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+    <row r="7" spans="1:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2387,10 +2418,15 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
+      <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="33">
+        <v>1.0049999999999999</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2398,10 +2434,11 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
+      <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2409,8 +2446,9 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
+      <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
@@ -2420,8 +2458,9 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
+      <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>1</v>
       </c>
@@ -2435,15 +2474,16 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
+      <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" cm="1">
+    <row r="12" spans="1:13" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" cm="1">
         <f t="array" ref="A12:A19">TRANSPOSE(B4:I4)</f>
-        <v>2E-3</v>
-      </c>
-      <c r="B12" s="18" cm="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="13" cm="1">
         <f t="array" ref="B12:B19">TRANSPOSE(B6:I6)</f>
-        <v>4.0199999999999993E-3</v>
+        <v>0.20099999999999998</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2452,13 +2492,14 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
+      <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="B13" s="19">
-        <v>1.0049999999999998E-2</v>
+    <row r="13" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0.50249999999999995</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2467,13 +2508,14 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
+      <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="B14" s="19">
-        <v>2.0099999999999996E-2</v>
+    <row r="14" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1.0049999999999999</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2482,13 +2524,14 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
+      <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="B15" s="19">
-        <v>4.0199999999999993E-2</v>
+    <row r="15" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2.0099999999999998</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2497,13 +2540,14 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
+      <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="B16" s="19">
-        <v>8.0399999999999985E-2</v>
+    <row r="16" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
+        <v>4.0199999999999996</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2512,13 +2556,14 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
+      <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="B17" s="19">
-        <v>0.12059999999999998</v>
+    <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
+        <v>6.0299999999999994</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -2527,13 +2572,14 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
+      <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.16079999999999997</v>
+    <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
+        <v>8.0399999999999991</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2542,13 +2588,14 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
+      <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20">
-        <v>0.104</v>
-      </c>
-      <c r="B19" s="20">
-        <v>0.20099999999999998</v>
+    <row r="19" spans="1:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>0</v>
+      </c>
+      <c r="B19" s="15">
+        <v>10.049999999999999</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2557,8 +2604,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
+      <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
@@ -2568,8 +2616,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
+      <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
@@ -2579,12 +2628,13 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
+      <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:9" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:10" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2592,14 +2642,13 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
+      <c r="J22" s="21"/>
     </row>
-    <row r="23" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="16">
-        <v>0.52270000000000005</v>
-      </c>
+      <c r="B23" s="11"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2607,14 +2656,13 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
+      <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="17">
-        <v>2.3E-3</v>
-      </c>
+      <c r="B24" s="12"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2622,13 +2670,15 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
+      <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="24">
-        <v>2.1000000000000001E-2</v>
+        <f>J4</f>
+        <v>0</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2637,14 +2687,15 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
+      <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="15" t="e">
         <f>B25/B23-B24</f>
-        <v>3.7876009183087811E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2653,8 +2704,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
+      <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
@@ -2664,17 +2716,18 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
+      <c r="J27" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A3:I3"/>
     <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>